--- a/tut05/output/0401EE34.xlsx
+++ b/tut05/output/0401EE34.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.816326530612244</v>
+        <v>8.82</v>
       </c>
       <c r="C6" t="n">
-        <v>7.659090909090909</v>
+        <v>7.66</v>
       </c>
       <c r="D6" t="n">
-        <v>8.978260869565217</v>
+        <v>8.98</v>
       </c>
       <c r="E6" t="n">
-        <v>8.630434782608695</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>8.615384615384615</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="G6" t="n">
         <v>8.4</v>
       </c>
       <c r="H6" t="n">
-        <v>9.093023255813954</v>
+        <v>9.09</v>
       </c>
       <c r="I6" t="n">
-        <v>8.894736842105264</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.816326530612244</v>
+        <v>8.82</v>
       </c>
       <c r="C8" t="n">
-        <v>8.268817204301076</v>
+        <v>8.27</v>
       </c>
       <c r="D8" t="n">
-        <v>8.503597122302159</v>
+        <v>8.5</v>
       </c>
       <c r="E8" t="n">
-        <v>8.535135135135135</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>8.549107142857142</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>8.526515151515152</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>8.60586319218241</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.637681159420289</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
   </sheetData>
